--- a/ExcelSender/ExcelSender/Raw Data.xlsx
+++ b/ExcelSender/ExcelSender/Raw Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="91">
   <si>
     <t>Level0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -560,6 +560,66 @@
   </si>
   <si>
     <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동래구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +1009,7 @@
   <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7157,8 +7217,8 @@
       <c r="B152" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>75</v>
+      <c r="C152" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>75</v>
@@ -7198,8 +7258,8 @@
       <c r="B153" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>75</v>
+      <c r="C153" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>75</v>
@@ -7239,8 +7299,8 @@
       <c r="B154" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>75</v>
+      <c r="C154" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>75</v>
@@ -7280,8 +7340,8 @@
       <c r="B155" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>75</v>
+      <c r="C155" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>75</v>
@@ -7321,8 +7381,8 @@
       <c r="B156" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>75</v>
+      <c r="C156" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>75</v>
@@ -7362,8 +7422,8 @@
       <c r="B157" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>75</v>
+      <c r="C157" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>75</v>
@@ -7403,8 +7463,8 @@
       <c r="B158" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>75</v>
+      <c r="C158" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>75</v>
@@ -7444,8 +7504,8 @@
       <c r="B159" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>75</v>
+      <c r="C159" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>75</v>
@@ -7485,8 +7545,8 @@
       <c r="B160" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>75</v>
+      <c r="C160" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>75</v>
@@ -7526,8 +7586,8 @@
       <c r="B161" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>75</v>
+      <c r="C161" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>75</v>
@@ -7567,8 +7627,8 @@
       <c r="B162" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>75</v>
+      <c r="C162" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>75</v>
@@ -7608,8 +7668,8 @@
       <c r="B163" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>75</v>
+      <c r="C163" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>75</v>
@@ -7649,8 +7709,8 @@
       <c r="B164" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>75</v>
+      <c r="C164" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>75</v>
@@ -7690,8 +7750,8 @@
       <c r="B165" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>75</v>
+      <c r="C165" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>75</v>
@@ -7731,8 +7791,8 @@
       <c r="B166" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>75</v>
+      <c r="C166" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>75</v>
